--- a/Testdata/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/ImportPublicationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC7044-912B-402C-A323-C6B0DB6B70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA5D6A-3AC4-442D-8B3D-72D1E0B323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,16 +43,16 @@
     <t>Files_to_upload</t>
   </si>
   <si>
-    <t>\ExtractionTemplate\ImportPublications\IC AML - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ImportPublications\ICER - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>ICER - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>IC AML - Success Case Sheet.xlsx</t>
+    <t>IC AML - Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\IC AML - Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\ICER RRMM - Success Case Sheet.xlsx</t>
   </si>
 </sst>
 </file>
@@ -377,13 +377,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
@@ -397,10 +397,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA5D6A-3AC4-442D-8B3D-72D1E0B323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8C1AE-C545-4629-AD6E-6605A08968C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,16 +43,16 @@
     <t>Files_to_upload</t>
   </si>
   <si>
-    <t>IC AML - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\IC AML - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>ICER RRMM - Success Case Sheet.xlsx</t>
   </si>
   <si>
     <t>\Testdata\Templates\ImportPublications\ICER RRMM - Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>mCRPC - Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\mCRPC - Failure Case Sheet.xlsx</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
